--- a/csec/database/English B data.xlsx
+++ b/csec/database/English B data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <t>name</t>
   </si>
@@ -19,13 +19,58 @@
     <t>id</t>
   </si>
   <si>
-    <t>English B January 2020 P2.pdf</t>
+    <t>CSEC English B January 2023 P032.pdf</t>
+  </si>
+  <si>
+    <t>1zQI48WIvTSouqCo44fGkDK4wTsSaOGSq</t>
+  </si>
+  <si>
+    <t>CSEC English B June 2022 P2.pdf</t>
+  </si>
+  <si>
+    <t>1tqkC33ufX9V-9eH-Xl2KNMuhyxG27uOj</t>
+  </si>
+  <si>
+    <t>CSEC English B June 2021 P2.pdf</t>
+  </si>
+  <si>
+    <t>1GzGNFWCiALkH5iJor7gfwDQQAp6kzQtc</t>
+  </si>
+  <si>
+    <t>CSEC English B June 2019 P2.pdf</t>
+  </si>
+  <si>
+    <t>1XLDY_m5cHLUUoK4190sDzO3CgjG8Ux6P</t>
+  </si>
+  <si>
+    <t>CSEC English B January 2023 P2.pdf</t>
+  </si>
+  <si>
+    <t>1cH5QI4ZnncFFUd0Xqg4bCWivbDG5qWoa</t>
+  </si>
+  <si>
+    <t>CSEC English B January 2011 P2.pdf</t>
+  </si>
+  <si>
+    <t>1VsTU-yBf5-b-szAHTK78RDBCcx7RR36o</t>
+  </si>
+  <si>
+    <t>CSEC English B January 2021 P2.pdf</t>
+  </si>
+  <si>
+    <t>1i4OB7xUuSB78slR7k_Ov2YvJBIy0xe6f</t>
+  </si>
+  <si>
+    <t>CSEC English B January 2020 P2.pdf</t>
+  </si>
+  <si>
+    <t>1uYZyk5rROW_k-6PxPQ__5ffeMBnseNIC</t>
   </si>
   <si>
     <t>1RS-s0FnLx4XQfTgf5UbCTjklW28cGLys</t>
   </si>
   <si>
-    <t>English B June 2018 P2.pdf</t>
+    <t>CSEC English B June 2018 P2.pdf</t>
   </si>
   <si>
     <t>13V3K0gDAMPi7LJo9aWT2lEch4433fecY</t>
@@ -131,9 +176,6 @@
   </si>
   <si>
     <t>1z-FIiaGp9DQSgKtEEBr9NFMXH4uWDRGb</t>
-  </si>
-  <si>
-    <t>CSEC English B January 2011 P2.pdf</t>
   </si>
   <si>
     <t>1ZXQFPBynVi0I529GjlS9YelJ71oBW-kF</t>
@@ -485,122 +527,186 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="1" t="s">
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
         <v>47</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
